--- a/Cidades/Raul Soares_3154002.xlsx
+++ b/Cidades/Raul Soares_3154002.xlsx
@@ -518,8 +518,16 @@
           <t>3105707</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -542,8 +550,16 @@
           <t>3122702</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -598,8 +614,16 @@
           <t>3135506</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,8 +646,16 @@
           <t>3145851</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -646,8 +678,16 @@
           <t>3150208</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -670,8 +710,16 @@
           <t>3152105</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -694,8 +742,16 @@
           <t>3154002</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>✅</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -718,8 +774,16 @@
           <t>3154903</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -742,8 +806,16 @@
           <t>3155009</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -766,8 +838,16 @@
           <t>3157401</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -790,8 +870,16 @@
           <t>3160108</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -814,8 +902,16 @@
           <t>3164001</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -838,8 +934,16 @@
           <t>3165560</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -862,8 +966,16 @@
           <t>3166303</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -886,8 +998,16 @@
           <t>3170503</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -910,8 +1030,16 @@
           <t>3171154</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>❌</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
